--- a/medicine/Enfance/Krousar_Thmey/Krousar_Thmey.xlsx
+++ b/medicine/Enfance/Krousar_Thmey/Krousar_Thmey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Krousar Thmey est une ONG qui agit pour la protection des enfants au Cambodge[1]. Elle a été fondée en 1991 par Benoît Duchâteau-Arminjon, dans les camps de réfugiés de Site II en Thaïlande. Il s'agit de la première fondation cambodgienne d'aide à l'enfance défavorisée. Elle milite pour les droits des enfants abandonnés, orphelins, enfants des rues ou victimes de trafic. Elle se charge aussi de l'éducation et de la scolarisation des enfants souffrant de déficience auditives ou visuelles dans 14 provinces à travers le pays.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Krousar Thmey est une ONG qui agit pour la protection des enfants au Cambodge. Elle a été fondée en 1991 par Benoît Duchâteau-Arminjon, dans les camps de réfugiés de Site II en Thaïlande. Il s'agit de la première fondation cambodgienne d'aide à l'enfance défavorisée. Elle milite pour les droits des enfants abandonnés, orphelins, enfants des rues ou victimes de trafic. Elle se charge aussi de l'éducation et de la scolarisation des enfants souffrant de déficience auditives ou visuelles dans 14 provinces à travers le pays.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Benoît Duchâteau-Arminjon est coopérant à Bangkok, lorsqu'il découvre le quotidien des jeunes enfants cambodgiens dans le camp de réfugiés de Site II. Il décide de se consacrer à eux en créant deux orphelinats dans les quartiers d'Obok et Dangrek.
 </t>
@@ -542,7 +556,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Toutes les actions de Krousar Thmey sont définies et menées par 250 salariés cambodgiens, seuls quatre à cinq volontaires européens (VSI) viennent en appui en communication, relation publique, contrôle de gestion et évaluation de programmes.
 Depuis sa création, Krousar Thmey a mis en place trois domaines d'action :
@@ -576,7 +592,9 @@
           <t>Soutien</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Krousar Thmey est soutenue par des partenaires associatifs, universitaires et institutionnels qui sont sollicités, entre autres, par les nombreux bénévoles, en France (Krousar Thmey - Nouvelle Famille est une association loi de 1901 de droit français, reconnue d’utilité publique en 1996), en Suisse, au Royaume-Uni, en Suède et à Singapour[réf. nécessaire]. L’État cambodgien, très attaché à l’action de Krousar Thmey dans le pays, apporte régulièrement son aide à la fondation[réf. nécessaire].
 </t>
